--- a/summary.xlsx
+++ b/summary.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Query_from_pg10_32" localSheetId="1" hidden="1">Sheet1!$A$1:$N$407</definedName>
+    <definedName name="Query_from_pg10_32" localSheetId="2" hidden="1">Sheet1!$A$1:$N$419</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="77" r:id="rId3"/>
+    <pivotCache cacheId="55" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2300" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="370">
   <si>
     <t>id</t>
   </si>
@@ -1113,6 +1114,42 @@
   </si>
   <si>
     <t>pumpkin filling</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>tums</t>
+  </si>
+  <si>
+    <t>medical</t>
+  </si>
+  <si>
+    <t>HERBAL</t>
+  </si>
+  <si>
+    <t>shampoo</t>
+  </si>
+  <si>
+    <t>conditioner</t>
+  </si>
+  <si>
+    <t>legos</t>
+  </si>
+  <si>
+    <t>toys</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>0.0675</t>
+  </si>
+  <si>
+    <t>POSTAGE STAMPS</t>
+  </si>
+  <si>
+    <t>postage stamps</t>
   </si>
 </sst>
 </file>
@@ -1166,16 +1203,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="24">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -1183,26 +1220,10 @@
       <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="27" formatCode="m/d/yyyy\ h:mm"/>
     </dxf>
     <dxf>
       <fill>
@@ -1540,11 +1561,33 @@
         <color theme="1"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
     </tableStyle>
     <tableStyle name="Quadrants_Blue" table="0" count="18">
       <tableStyleElement type="wholeTable" dxfId="21"/>
@@ -1579,19 +1622,60 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Paul Trowbridge" refreshedDate="43036.504227314814" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="406">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Paul Trowbridge" refreshedDate="43038.927971759258" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="418">
   <cacheSource type="worksheet">
     <worksheetSource name="Table_Query_from_pg10_32"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="id" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="38"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="43" count="40">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+        <n v="6"/>
+        <n v="7"/>
+        <n v="8"/>
+        <n v="9"/>
+        <n v="10"/>
+        <n v="11"/>
+        <n v="12"/>
+        <n v="13"/>
+        <n v="14"/>
+        <n v="15"/>
+        <n v="16"/>
+        <n v="17"/>
+        <n v="18"/>
+        <n v="19"/>
+        <n v="20"/>
+        <n v="21"/>
+        <n v="22"/>
+        <n v="23"/>
+        <n v="24"/>
+        <n v="25"/>
+        <n v="26"/>
+        <n v="27"/>
+        <n v="28"/>
+        <n v="29"/>
+        <n v="30"/>
+        <n v="31"/>
+        <n v="32"/>
+        <n v="33"/>
+        <n v="34"/>
+        <n v="35"/>
+        <n v="36"/>
+        <n v="37"/>
+        <n v="38"/>
+        <n v="41"/>
+        <n v="42"/>
+        <n v="43"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="rn" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="94"/>
     </cacheField>
     <cacheField name="post_stmp" numFmtId="22">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-10-26T23:21:22" maxDate="2017-10-28T02:17:54"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2017-10-26T23:21:22" maxDate="2017-10-30T22:10:16"/>
     </cacheField>
     <cacheField name="amount" numFmtId="0">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-206.88" maxValue="206.88"/>
@@ -1617,7 +1701,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="vendor" numFmtId="0">
-      <sharedItems count="21">
+      <sharedItems count="22">
         <s v="Acme"/>
         <s v="Target"/>
         <s v="Giant Eagle"/>
@@ -1639,10 +1723,11 @@
         <s v="Arbys"/>
         <s v="Remember Nhu"/>
         <s v="Speedway"/>
+        <s v="CVS"/>
       </sharedItems>
     </cacheField>
     <cacheField name="vend_item" numFmtId="0">
-      <sharedItems count="147">
+      <sharedItems count="150">
         <s v="VT QUICK OATS"/>
         <s v="GARLIC EXPRESSIONS"/>
         <s v="OLVGRDN SIG ITAL"/>
@@ -1789,6 +1874,9 @@
         <s v="internet"/>
         <s v="sponsor"/>
         <s v="gasonline"/>
+        <s v="tums"/>
+        <s v="HERBAL"/>
+        <s v="POSTAGE STAMPS"/>
         <s v="FUEL REWARDS" u="1"/>
       </sharedItems>
     </cacheField>
@@ -1796,7 +1884,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-206.88" maxValue="206.88"/>
     </cacheField>
     <cacheField name="account" numFmtId="0">
-      <sharedItems count="13">
+      <sharedItems containsBlank="1" count="14">
         <s v="food"/>
         <s v="dcard"/>
         <s v="home supplies"/>
@@ -1807,13 +1895,14 @@
         <s v="restaurantes"/>
         <s v="auto"/>
         <s v="internet"/>
+        <m u="1"/>
         <s v="home maint" u="1"/>
         <s v="restaurantess" u="1"/>
         <s v="restaurante" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="item" numFmtId="0">
-      <sharedItems count="116">
+      <sharedItems containsBlank="1" count="122">
         <s v="oats"/>
         <s v="salad dressing"/>
         <s v="salt"/>
@@ -1924,6 +2013,12 @@
         <s v="salsa"/>
         <s v="monthly support Phoebe"/>
         <s v="gasonline"/>
+        <s v="tums"/>
+        <s v="shampoo"/>
+        <s v="conditioner"/>
+        <s v="legos"/>
+        <s v="postage stamps"/>
+        <m u="1"/>
         <s v="LIBBY PUMPKIN" u="1"/>
         <s v="CSTM FULLBODY" u="1"/>
         <s v="GE CRM CHEESE" u="1"/>
@@ -1933,7 +2028,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="reason" numFmtId="0">
-      <sharedItems containsBlank="1" count="19">
+      <sharedItems containsBlank="1" count="21">
         <s v="food"/>
         <s v="hygiene"/>
         <s v="recreation"/>
@@ -1952,6 +2047,8 @@
         <s v="Miller anniversary"/>
         <s v="internet"/>
         <s v="missions"/>
+        <s v="medical"/>
+        <s v="toys"/>
         <s v="hygeine" u="1"/>
       </sharedItems>
     </cacheField>
@@ -1974,9 +2071,9 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="406">
-  <r>
-    <n v="1"/>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="418">
+  <r>
+    <x v="0"/>
     <n v="1"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="2.89"/>
@@ -1992,7 +2089,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="2"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="4.99"/>
@@ -2008,7 +2105,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="3"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="4.99"/>
@@ -2024,7 +2121,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="4"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="3.99"/>
@@ -2040,7 +2137,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="5"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-1"/>
@@ -2056,7 +2153,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="6"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="3.39"/>
@@ -2072,7 +2169,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="7"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="1.99"/>
@@ -2088,7 +2185,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="8"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="10.64"/>
@@ -2104,7 +2201,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="9"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="9.69"/>
@@ -2120,7 +2217,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="10"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="9.69"/>
@@ -2136,7 +2233,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="11"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="3.29"/>
@@ -2152,7 +2249,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="12"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="1.99"/>
@@ -2168,7 +2265,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="13"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="1.99"/>
@@ -2184,7 +2281,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="14"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="2.5"/>
@@ -2200,7 +2297,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="15"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="2.5"/>
@@ -2216,7 +2313,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="16"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="2.5"/>
@@ -2232,7 +2329,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="17"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="2.5"/>
@@ -2248,7 +2345,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="18"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-2.89"/>
@@ -2264,7 +2361,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="19"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-4.99"/>
@@ -2280,7 +2377,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="20"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-4.99"/>
@@ -2296,7 +2393,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="21"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-3.99"/>
@@ -2312,7 +2409,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="22"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="1"/>
@@ -2328,7 +2425,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="23"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-3.39"/>
@@ -2344,7 +2441,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="24"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-1.99"/>
@@ -2360,7 +2457,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="25"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-10.64"/>
@@ -2376,7 +2473,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="26"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-9.69"/>
@@ -2392,7 +2489,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="27"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-9.69"/>
@@ -2408,7 +2505,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="28"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-3.29"/>
@@ -2424,7 +2521,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="29"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-1.99"/>
@@ -2440,7 +2537,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="30"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-1.99"/>
@@ -2456,7 +2553,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="31"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-2.5"/>
@@ -2472,7 +2569,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="32"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-2.5"/>
@@ -2488,7 +2585,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="33"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-2.5"/>
@@ -2504,7 +2601,7 @@
     <m/>
   </r>
   <r>
-    <n v="1"/>
+    <x v="0"/>
     <n v="34"/>
     <d v="2017-10-26T23:21:22"/>
     <n v="-2.5"/>
@@ -2520,7 +2617,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="1"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="9.99"/>
@@ -2536,7 +2633,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="2"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="19.98"/>
@@ -2552,7 +2649,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="3"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="30"/>
@@ -2568,7 +2665,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="4"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="40"/>
@@ -2584,7 +2681,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="5"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="40"/>
@@ -2600,7 +2697,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="6"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="-20"/>
@@ -2616,7 +2713,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="7"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="8.1"/>
@@ -2632,7 +2729,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="8"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="-9.99"/>
@@ -2648,7 +2745,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="9"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="-19.98"/>
@@ -2664,7 +2761,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="10"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="-30"/>
@@ -2680,7 +2777,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="11"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="-40"/>
@@ -2696,7 +2793,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="12"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="-40"/>
@@ -2712,7 +2809,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="13"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="20"/>
@@ -2728,7 +2825,7 @@
     <m/>
   </r>
   <r>
-    <n v="2"/>
+    <x v="1"/>
     <n v="14"/>
     <d v="2017-10-26T23:51:51"/>
     <n v="-8.1"/>
@@ -2744,7 +2841,7 @@
     <m/>
   </r>
   <r>
-    <n v="3"/>
+    <x v="2"/>
     <n v="1"/>
     <d v="2017-10-26T23:57:07"/>
     <n v="-30"/>
@@ -2760,7 +2857,7 @@
     <m/>
   </r>
   <r>
-    <n v="3"/>
+    <x v="2"/>
     <n v="2"/>
     <d v="2017-10-26T23:57:07"/>
     <n v="-2.0299999999999998"/>
@@ -2776,7 +2873,7 @@
     <m/>
   </r>
   <r>
-    <n v="3"/>
+    <x v="2"/>
     <n v="3"/>
     <d v="2017-10-26T23:57:07"/>
     <n v="30"/>
@@ -2792,7 +2889,7 @@
     <m/>
   </r>
   <r>
-    <n v="3"/>
+    <x v="2"/>
     <n v="4"/>
     <d v="2017-10-26T23:57:07"/>
     <n v="2.0299999999999998"/>
@@ -2808,7 +2905,7 @@
     <m/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="1"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="29.97"/>
@@ -2824,7 +2921,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="2"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="8.99"/>
@@ -2840,7 +2937,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="3"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="3"/>
@@ -2856,7 +2953,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="4"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="15.98"/>
@@ -2872,7 +2969,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="5"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="6.99"/>
@@ -2888,7 +2985,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="6"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="7.99"/>
@@ -2904,7 +3001,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="7"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="30"/>
@@ -2920,7 +3017,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="8"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="6.74"/>
@@ -2936,7 +3033,7 @@
     <m/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="9"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="-29.97"/>
@@ -2952,7 +3049,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="10"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="-8.99"/>
@@ -2968,7 +3065,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="11"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="-3"/>
@@ -2984,7 +3081,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="12"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="-15.98"/>
@@ -3000,7 +3097,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="13"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="-6.99"/>
@@ -3016,7 +3113,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="14"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="-7.99"/>
@@ -3032,7 +3129,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="15"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="-30"/>
@@ -3048,7 +3145,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="4"/>
+    <x v="3"/>
     <n v="16"/>
     <d v="2017-10-27T00:02:32"/>
     <n v="-6.74"/>
@@ -3064,7 +3161,7 @@
     <m/>
   </r>
   <r>
-    <n v="6"/>
+    <x v="4"/>
     <n v="1"/>
     <d v="2017-10-27T00:31:22"/>
     <n v="20.49"/>
@@ -3080,7 +3177,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="6"/>
+    <x v="4"/>
     <n v="2"/>
     <d v="2017-10-27T00:31:22"/>
     <n v="3.49"/>
@@ -3096,7 +3193,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="6"/>
+    <x v="4"/>
     <n v="3"/>
     <d v="2017-10-27T00:31:22"/>
     <n v="3.29"/>
@@ -3112,7 +3209,7 @@
     <m/>
   </r>
   <r>
-    <n v="6"/>
+    <x v="4"/>
     <n v="4"/>
     <d v="2017-10-27T00:31:22"/>
     <n v="1.84"/>
@@ -3128,7 +3225,7 @@
     <m/>
   </r>
   <r>
-    <n v="6"/>
+    <x v="4"/>
     <n v="5"/>
     <d v="2017-10-27T00:31:22"/>
     <n v="-20.49"/>
@@ -3144,7 +3241,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="6"/>
+    <x v="4"/>
     <n v="6"/>
     <d v="2017-10-27T00:31:22"/>
     <n v="-3.49"/>
@@ -3160,7 +3257,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="6"/>
+    <x v="4"/>
     <n v="7"/>
     <d v="2017-10-27T00:31:22"/>
     <n v="-3.29"/>
@@ -3176,7 +3273,7 @@
     <m/>
   </r>
   <r>
-    <n v="6"/>
+    <x v="4"/>
     <n v="8"/>
     <d v="2017-10-27T00:31:22"/>
     <n v="-1.84"/>
@@ -3192,7 +3289,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="1"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="1.79"/>
@@ -3208,7 +3305,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="2"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="1.79"/>
@@ -3224,7 +3321,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="3"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="5.99"/>
@@ -3240,7 +3337,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="4"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="-2"/>
@@ -3256,7 +3353,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="5"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="3.29"/>
@@ -3272,7 +3369,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="6"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="-0.79"/>
@@ -3288,7 +3385,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="7"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="3.29"/>
@@ -3304,7 +3401,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="8"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="-0.79"/>
@@ -3320,7 +3417,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="9"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="-1.79"/>
@@ -3336,7 +3433,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="10"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="-1.79"/>
@@ -3352,7 +3449,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="11"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="-5.99"/>
@@ -3368,7 +3465,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="12"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="2"/>
@@ -3384,7 +3481,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="13"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="-3.29"/>
@@ -3400,7 +3497,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="14"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="0.79"/>
@@ -3416,7 +3513,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="15"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="-3.29"/>
@@ -3432,7 +3529,7 @@
     <m/>
   </r>
   <r>
-    <n v="7"/>
+    <x v="5"/>
     <n v="16"/>
     <d v="2017-10-27T00:36:05"/>
     <n v="0.79"/>
@@ -3448,7 +3545,7 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="1"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="3.99"/>
@@ -3464,7 +3561,7 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="2"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="6.38"/>
@@ -3480,7 +3577,7 @@
     <s v="bag"/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="3"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="3.29"/>
@@ -3496,7 +3593,7 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="4"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="2.99"/>
@@ -3512,7 +3609,7 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="5"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="5.99"/>
@@ -3528,7 +3625,7 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="6"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="-3.99"/>
@@ -3544,7 +3641,7 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="7"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="-6.38"/>
@@ -3560,7 +3657,7 @@
     <s v="bag"/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="8"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="-3.29"/>
@@ -3576,7 +3673,7 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="9"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="-2.99"/>
@@ -3592,7 +3689,7 @@
     <m/>
   </r>
   <r>
-    <n v="8"/>
+    <x v="6"/>
     <n v="10"/>
     <d v="2017-10-27T00:48:01"/>
     <n v="-5.99"/>
@@ -3608,7 +3705,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="1"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="2.4900000000000002"/>
@@ -3624,7 +3721,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="2"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-0.3"/>
@@ -3640,7 +3737,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="3"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="2.29"/>
@@ -3656,7 +3753,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="4"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="1.79"/>
@@ -3672,7 +3769,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="5"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-0.28999999999999998"/>
@@ -3688,7 +3785,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="6"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="2.29"/>
@@ -3704,7 +3801,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="7"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-0.28999999999999998"/>
@@ -3720,7 +3817,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="8"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="2.29"/>
@@ -3736,7 +3833,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="9"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-0.28999999999999998"/>
@@ -3752,7 +3849,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="10"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="3.99"/>
@@ -3768,7 +3865,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="11"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="3.99"/>
@@ -3784,7 +3881,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="12"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="3.99"/>
@@ -3800,7 +3897,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="13"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-2.4900000000000002"/>
@@ -3816,7 +3913,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="14"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="0.3"/>
@@ -3832,7 +3929,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="15"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-2.29"/>
@@ -3848,7 +3945,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="16"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-1.79"/>
@@ -3864,7 +3961,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="17"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="0.28999999999999998"/>
@@ -3880,7 +3977,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="18"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-2.29"/>
@@ -3896,7 +3993,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="19"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="0.28999999999999998"/>
@@ -3912,7 +4009,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="20"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-2.29"/>
@@ -3928,7 +4025,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="21"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="0.28999999999999998"/>
@@ -3944,7 +4041,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="22"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-3.99"/>
@@ -3960,7 +4057,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="23"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-3.99"/>
@@ -3976,7 +4073,7 @@
     <m/>
   </r>
   <r>
-    <n v="9"/>
+    <x v="7"/>
     <n v="24"/>
     <d v="2017-10-27T00:52:23"/>
     <n v="-3.99"/>
@@ -3992,7 +4089,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="1"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="9.42"/>
@@ -4008,7 +4105,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="2"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="9.42"/>
@@ -4024,7 +4121,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="3"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="10.25"/>
@@ -4040,7 +4137,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="4"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="10.25"/>
@@ -4056,7 +4153,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="5"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="1.41"/>
@@ -4072,7 +4169,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="6"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="2.75"/>
@@ -4088,7 +4185,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="7"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="-9.42"/>
@@ -4104,7 +4201,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="8"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="-9.42"/>
@@ -4120,7 +4217,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="9"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="-10.25"/>
@@ -4136,7 +4233,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="10"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="-10.25"/>
@@ -4152,7 +4249,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="11"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="-1.41"/>
@@ -4168,7 +4265,7 @@
     <m/>
   </r>
   <r>
-    <n v="10"/>
+    <x v="8"/>
     <n v="12"/>
     <d v="2017-10-27T00:58:27"/>
     <n v="-2.75"/>
@@ -4184,7 +4281,7 @@
     <m/>
   </r>
   <r>
-    <n v="11"/>
+    <x v="9"/>
     <n v="1"/>
     <d v="2017-10-27T01:00:22"/>
     <n v="0.99"/>
@@ -4200,7 +4297,7 @@
     <m/>
   </r>
   <r>
-    <n v="11"/>
+    <x v="9"/>
     <n v="2"/>
     <d v="2017-10-27T01:00:22"/>
     <n v="9.58"/>
@@ -4216,7 +4313,7 @@
     <m/>
   </r>
   <r>
-    <n v="11"/>
+    <x v="9"/>
     <n v="3"/>
     <d v="2017-10-27T01:00:22"/>
     <n v="0.65"/>
@@ -4232,7 +4329,7 @@
     <m/>
   </r>
   <r>
-    <n v="11"/>
+    <x v="9"/>
     <n v="4"/>
     <d v="2017-10-27T01:00:22"/>
     <n v="-0.99"/>
@@ -4248,7 +4345,7 @@
     <m/>
   </r>
   <r>
-    <n v="11"/>
+    <x v="9"/>
     <n v="5"/>
     <d v="2017-10-27T01:00:22"/>
     <n v="-9.58"/>
@@ -4264,7 +4361,7 @@
     <m/>
   </r>
   <r>
-    <n v="11"/>
+    <x v="9"/>
     <n v="6"/>
     <d v="2017-10-27T01:00:22"/>
     <n v="-0.65"/>
@@ -4280,7 +4377,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="1"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="4.29"/>
@@ -4296,7 +4393,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="2"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="6.49"/>
@@ -4312,7 +4409,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="3"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="5.99"/>
@@ -4328,7 +4425,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="4"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="5.99"/>
@@ -4344,7 +4441,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="5"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="9.58"/>
@@ -4360,7 +4457,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="6"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="2.1800000000000002"/>
@@ -4376,7 +4473,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="7"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="-4.29"/>
@@ -4392,7 +4489,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="8"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="-6.49"/>
@@ -4408,7 +4505,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="9"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="-5.99"/>
@@ -4424,7 +4521,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="10"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="-5.99"/>
@@ -4440,7 +4537,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="11"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="-9.58"/>
@@ -4456,7 +4553,7 @@
     <m/>
   </r>
   <r>
-    <n v="12"/>
+    <x v="10"/>
     <n v="12"/>
     <d v="2017-10-27T01:03:13"/>
     <n v="-2.1800000000000002"/>
@@ -4472,7 +4569,7 @@
     <m/>
   </r>
   <r>
-    <n v="13"/>
+    <x v="11"/>
     <n v="1"/>
     <d v="2017-10-27T01:05:39"/>
     <n v="3.49"/>
@@ -4488,7 +4585,7 @@
     <m/>
   </r>
   <r>
-    <n v="13"/>
+    <x v="11"/>
     <n v="2"/>
     <d v="2017-10-27T01:05:39"/>
     <n v="-3.49"/>
@@ -4504,7 +4601,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="1"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="1"/>
@@ -4520,7 +4617,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="2"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="4.99"/>
@@ -4536,7 +4633,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="3"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="1.29"/>
@@ -4552,7 +4649,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="4"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="1.29"/>
@@ -4568,7 +4665,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="5"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="1.29"/>
@@ -4584,7 +4681,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="6"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="0.34"/>
@@ -4600,7 +4697,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="7"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="-1"/>
@@ -4616,7 +4713,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="8"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="-4.99"/>
@@ -4632,7 +4729,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="9"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="-1.29"/>
@@ -4648,7 +4745,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="10"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="-1.29"/>
@@ -4664,7 +4761,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="11"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="-1.29"/>
@@ -4680,7 +4777,7 @@
     <m/>
   </r>
   <r>
-    <n v="14"/>
+    <x v="12"/>
     <n v="12"/>
     <d v="2017-10-27T01:14:48"/>
     <n v="-0.34"/>
@@ -4696,7 +4793,7 @@
     <m/>
   </r>
   <r>
-    <n v="15"/>
+    <x v="13"/>
     <n v="1"/>
     <d v="2017-10-27T01:18:39"/>
     <n v="20"/>
@@ -4712,7 +4809,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="15"/>
+    <x v="13"/>
     <n v="2"/>
     <d v="2017-10-27T01:18:39"/>
     <n v="1.35"/>
@@ -4728,7 +4825,7 @@
     <m/>
   </r>
   <r>
-    <n v="15"/>
+    <x v="13"/>
     <n v="3"/>
     <d v="2017-10-27T01:18:39"/>
     <n v="-20"/>
@@ -4744,7 +4841,7 @@
     <s v="ea"/>
   </r>
   <r>
-    <n v="15"/>
+    <x v="13"/>
     <n v="4"/>
     <d v="2017-10-27T01:18:39"/>
     <n v="-1.35"/>
@@ -4760,7 +4857,7 @@
     <m/>
   </r>
   <r>
-    <n v="16"/>
+    <x v="14"/>
     <n v="1"/>
     <d v="2017-10-27T01:22:05"/>
     <n v="6.99"/>
@@ -4776,7 +4873,7 @@
     <m/>
   </r>
   <r>
-    <n v="16"/>
+    <x v="14"/>
     <n v="2"/>
     <d v="2017-10-27T01:22:05"/>
     <n v="21.99"/>
@@ -4792,7 +4889,7 @@
     <m/>
   </r>
   <r>
-    <n v="16"/>
+    <x v="14"/>
     <n v="3"/>
     <d v="2017-10-27T01:22:05"/>
     <n v="1.96"/>
@@ -4808,7 +4905,7 @@
     <m/>
   </r>
   <r>
-    <n v="16"/>
+    <x v="14"/>
     <n v="4"/>
     <d v="2017-10-27T01:22:05"/>
     <n v="-6.99"/>
@@ -4824,7 +4921,7 @@
     <m/>
   </r>
   <r>
-    <n v="16"/>
+    <x v="14"/>
     <n v="5"/>
     <d v="2017-10-27T01:22:05"/>
     <n v="-21.99"/>
@@ -4840,7 +4937,7 @@
     <m/>
   </r>
   <r>
-    <n v="16"/>
+    <x v="14"/>
     <n v="6"/>
     <d v="2017-10-27T01:22:05"/>
     <n v="-1.96"/>
@@ -4856,7 +4953,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="1"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="6.99"/>
@@ -4872,7 +4969,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="2"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="1.29"/>
@@ -4888,7 +4985,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="3"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="1.99"/>
@@ -4904,7 +5001,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="4"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="7.99"/>
@@ -4920,7 +5017,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="5"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="3.99"/>
@@ -4936,7 +5033,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="6"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="1.5"/>
@@ -4952,7 +5049,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="7"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="-6.99"/>
@@ -4968,7 +5065,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="8"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="-1.29"/>
@@ -4984,7 +5081,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="9"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="-1.99"/>
@@ -5000,7 +5097,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="10"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="-7.99"/>
@@ -5016,7 +5113,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="11"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="-3.99"/>
@@ -5032,7 +5129,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="12"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="-1.5"/>
@@ -5048,7 +5145,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="13"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="1.99"/>
@@ -5064,7 +5161,7 @@
     <m/>
   </r>
   <r>
-    <n v="17"/>
+    <x v="15"/>
     <n v="14"/>
     <d v="2017-10-27T01:26:31"/>
     <n v="-1.99"/>
@@ -5080,7 +5177,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="1"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="14.99"/>
@@ -5096,7 +5193,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="2"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="24.99"/>
@@ -5112,7 +5209,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="3"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="8.5399999999999991"/>
@@ -5128,7 +5225,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="4"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="3.5"/>
@@ -5144,7 +5241,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="5"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="3.5"/>
@@ -5160,7 +5257,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="6"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="18.59"/>
@@ -5176,7 +5273,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="7"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="4.25"/>
@@ -5192,7 +5289,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="8"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="-14.99"/>
@@ -5208,7 +5305,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="9"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="-24.99"/>
@@ -5224,7 +5321,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="10"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="-8.5399999999999991"/>
@@ -5240,7 +5337,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="11"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="-3.5"/>
@@ -5256,7 +5353,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="12"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="-3.5"/>
@@ -5272,7 +5369,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="13"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="-18.59"/>
@@ -5288,7 +5385,7 @@
     <m/>
   </r>
   <r>
-    <n v="18"/>
+    <x v="16"/>
     <n v="14"/>
     <d v="2017-10-27T01:32:49"/>
     <n v="-4.25"/>
@@ -5304,7 +5401,7 @@
     <m/>
   </r>
   <r>
-    <n v="19"/>
+    <x v="17"/>
     <n v="1"/>
     <d v="2017-10-27T01:34:34"/>
     <n v="1.99"/>
@@ -5320,7 +5417,7 @@
     <m/>
   </r>
   <r>
-    <n v="19"/>
+    <x v="17"/>
     <n v="2"/>
     <d v="2017-10-27T01:34:34"/>
     <n v="-1.99"/>
@@ -5336,7 +5433,7 @@
     <m/>
   </r>
   <r>
-    <n v="20"/>
+    <x v="18"/>
     <n v="1"/>
     <d v="2017-10-27T01:37:51"/>
     <n v="23.39"/>
@@ -5352,7 +5449,7 @@
     <m/>
   </r>
   <r>
-    <n v="20"/>
+    <x v="18"/>
     <n v="2"/>
     <d v="2017-10-27T01:37:51"/>
     <n v="1.7"/>
@@ -5368,7 +5465,7 @@
     <m/>
   </r>
   <r>
-    <n v="20"/>
+    <x v="18"/>
     <n v="3"/>
     <d v="2017-10-27T01:37:51"/>
     <n v="-23.39"/>
@@ -5384,7 +5481,7 @@
     <m/>
   </r>
   <r>
-    <n v="20"/>
+    <x v="18"/>
     <n v="4"/>
     <d v="2017-10-27T01:37:51"/>
     <n v="-1.7"/>
@@ -5400,7 +5497,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="1"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="6.41"/>
@@ -5416,7 +5513,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="2"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="0.67"/>
@@ -5432,7 +5529,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="3"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="7.25"/>
@@ -5448,7 +5545,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="4"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="4.3600000000000003"/>
@@ -5464,7 +5561,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="5"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="1.34"/>
@@ -5480,7 +5577,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="6"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="1.98"/>
@@ -5496,7 +5593,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="7"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="2.68"/>
@@ -5512,7 +5609,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="8"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="1.44"/>
@@ -5528,7 +5625,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="9"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="8.5299999999999994"/>
@@ -5544,7 +5641,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="10"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="2.98"/>
@@ -5560,7 +5657,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="11"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="5"/>
@@ -5576,7 +5673,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="12"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="6.96"/>
@@ -5592,7 +5689,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="13"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="5.96"/>
@@ -5608,7 +5705,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="14"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="6.96"/>
@@ -5624,7 +5721,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="15"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="1.97"/>
@@ -5640,7 +5737,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="16"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="4.9800000000000004"/>
@@ -5656,7 +5753,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="17"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="5.24"/>
@@ -5672,7 +5769,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="18"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="7.92"/>
@@ -5688,7 +5785,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="19"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="4.5"/>
@@ -5704,7 +5801,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="20"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="3.47"/>
@@ -5720,7 +5817,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="21"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="3.47"/>
@@ -5736,7 +5833,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="22"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="7.71"/>
@@ -5752,7 +5849,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="23"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="6.97"/>
@@ -5768,7 +5865,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="24"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="7.54"/>
@@ -5784,7 +5881,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="25"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="45.48"/>
@@ -5800,7 +5897,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="26"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="17.34"/>
@@ -5816,7 +5913,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="27"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="20.94"/>
@@ -5832,7 +5929,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="28"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="4.96"/>
@@ -5848,7 +5945,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="29"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="6.96"/>
@@ -5864,7 +5961,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="30"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="9.9600000000000009"/>
@@ -5880,7 +5977,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="31"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="9.9600000000000009"/>
@@ -5896,7 +5993,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="32"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="3.28"/>
@@ -5912,7 +6009,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="33"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="2.1800000000000002"/>
@@ -5928,7 +6025,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="34"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-6.41"/>
@@ -5944,7 +6041,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="35"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-0.67"/>
@@ -5960,7 +6057,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="36"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-7.25"/>
@@ -5976,7 +6073,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="37"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-4.3600000000000003"/>
@@ -5992,7 +6089,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="38"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-1.34"/>
@@ -6008,7 +6105,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="39"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-1.98"/>
@@ -6024,7 +6121,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="40"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-2.68"/>
@@ -6040,7 +6137,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="41"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-1.44"/>
@@ -6056,7 +6153,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="42"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-8.5299999999999994"/>
@@ -6072,7 +6169,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="43"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-2.98"/>
@@ -6088,7 +6185,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="44"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-5"/>
@@ -6104,7 +6201,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="45"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-6.96"/>
@@ -6120,7 +6217,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="46"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-5.96"/>
@@ -6136,7 +6233,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="47"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-6.96"/>
@@ -6152,7 +6249,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="48"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-1.97"/>
@@ -6168,7 +6265,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="49"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-4.9800000000000004"/>
@@ -6184,7 +6281,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="50"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-5.24"/>
@@ -6200,7 +6297,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="51"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-7.92"/>
@@ -6216,7 +6313,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="52"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-4.5"/>
@@ -6232,7 +6329,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="53"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-3.47"/>
@@ -6248,7 +6345,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="54"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-3.47"/>
@@ -6264,7 +6361,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="55"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-7.71"/>
@@ -6280,7 +6377,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="56"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-6.97"/>
@@ -6296,7 +6393,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="57"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-7.54"/>
@@ -6312,7 +6409,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="58"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-45.48"/>
@@ -6328,7 +6425,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="59"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-17.34"/>
@@ -6344,7 +6441,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="60"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-20.94"/>
@@ -6360,7 +6457,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="61"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-4.96"/>
@@ -6376,7 +6473,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="62"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-6.96"/>
@@ -6392,7 +6489,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="63"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-9.9600000000000009"/>
@@ -6408,7 +6505,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="64"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-9.9600000000000009"/>
@@ -6424,7 +6521,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="65"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-3.28"/>
@@ -6440,7 +6537,7 @@
     <m/>
   </r>
   <r>
-    <n v="21"/>
+    <x v="19"/>
     <n v="66"/>
     <d v="2017-10-28T01:10:54"/>
     <n v="-2.1800000000000002"/>
@@ -6456,7 +6553,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="1"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="2.1800000000000002"/>
@@ -6472,7 +6569,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="2"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="2.4300000000000002"/>
@@ -6488,7 +6585,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="3"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="7.25"/>
@@ -6504,7 +6601,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="4"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="3.56"/>
@@ -6520,7 +6617,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="5"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="5"/>
@@ -6536,7 +6633,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="6"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="5.47"/>
@@ -6552,7 +6649,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="7"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="1.74"/>
@@ -6568,7 +6665,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="8"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="1.48"/>
@@ -6584,7 +6681,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="9"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="7.04"/>
@@ -6600,7 +6697,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="10"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="5.96"/>
@@ -6616,7 +6713,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="11"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="2.98"/>
@@ -6632,7 +6729,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="12"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="6.96"/>
@@ -6648,7 +6745,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="13"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="3.28"/>
@@ -6664,7 +6761,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="14"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="0.98"/>
@@ -6680,7 +6777,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="15"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="5.98"/>
@@ -6696,7 +6793,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="16"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="4.88"/>
@@ -6712,7 +6809,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="17"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="11.82"/>
@@ -6728,7 +6825,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="18"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="17.34"/>
@@ -6744,7 +6841,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="19"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="3.88"/>
@@ -6760,7 +6857,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="20"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="1.84"/>
@@ -6776,7 +6873,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="21"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="2.92"/>
@@ -6792,7 +6889,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="22"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="2.97"/>
@@ -6808,7 +6905,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="23"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="6.68"/>
@@ -6824,7 +6921,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="24"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="3.47"/>
@@ -6840,7 +6937,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="25"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="3.47"/>
@@ -6856,7 +6953,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="26"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="4.22"/>
@@ -6872,7 +6969,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="27"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="6.96"/>
@@ -6888,7 +6985,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="28"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="0.98"/>
@@ -6904,7 +7001,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="29"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="1.38"/>
@@ -6920,7 +7017,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="30"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="5.78"/>
@@ -6936,7 +7033,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="31"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="2.64"/>
@@ -6952,7 +7049,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="32"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="1.98"/>
@@ -6968,7 +7065,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="33"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="3.74"/>
@@ -6984,7 +7081,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="34"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="11.31"/>
@@ -7000,7 +7097,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="35"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="1.98"/>
@@ -7016,7 +7113,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="36"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="0.57999999999999996"/>
@@ -7032,7 +7129,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="37"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="23.92"/>
@@ -7048,7 +7145,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="38"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="1.1599999999999999"/>
@@ -7064,7 +7161,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="39"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="3.96"/>
@@ -7080,7 +7177,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="40"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="2.88"/>
@@ -7096,7 +7193,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="41"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="5.82"/>
@@ -7112,7 +7209,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="42"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="1.98"/>
@@ -7128,7 +7225,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="43"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="68"/>
@@ -7144,7 +7241,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="44"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="4.1399999999999997"/>
@@ -7160,7 +7257,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="45"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="3.45"/>
@@ -7176,7 +7273,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="46"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="5.2"/>
@@ -7192,7 +7289,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="47"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="0.53"/>
@@ -7208,7 +7305,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="48"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-2.1800000000000002"/>
@@ -7224,7 +7321,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="49"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-2.4300000000000002"/>
@@ -7240,7 +7337,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="50"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-7.25"/>
@@ -7256,7 +7353,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="51"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-3.56"/>
@@ -7272,7 +7369,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="52"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-5"/>
@@ -7288,7 +7385,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="53"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-5.47"/>
@@ -7304,7 +7401,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="54"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-1.74"/>
@@ -7320,7 +7417,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="55"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-1.48"/>
@@ -7336,7 +7433,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="56"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-7.04"/>
@@ -7352,7 +7449,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="57"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-5.96"/>
@@ -7368,7 +7465,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="58"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-2.98"/>
@@ -7384,7 +7481,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="59"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-6.96"/>
@@ -7400,7 +7497,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="60"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-3.28"/>
@@ -7416,7 +7513,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="61"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-0.98"/>
@@ -7432,7 +7529,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="62"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-5.98"/>
@@ -7448,7 +7545,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="63"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-4.88"/>
@@ -7464,7 +7561,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="64"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-11.82"/>
@@ -7480,7 +7577,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="65"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-17.34"/>
@@ -7496,7 +7593,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="66"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-3.88"/>
@@ -7512,7 +7609,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="67"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-1.84"/>
@@ -7528,7 +7625,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="68"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-2.92"/>
@@ -7544,7 +7641,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="69"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-2.97"/>
@@ -7560,7 +7657,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="70"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-6.68"/>
@@ -7576,7 +7673,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="71"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-3.47"/>
@@ -7592,7 +7689,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="72"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-3.47"/>
@@ -7608,7 +7705,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="73"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-4.22"/>
@@ -7624,7 +7721,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="74"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-6.96"/>
@@ -7640,7 +7737,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="75"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-0.98"/>
@@ -7656,7 +7753,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="76"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-1.38"/>
@@ -7672,7 +7769,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="77"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-5.78"/>
@@ -7688,7 +7785,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="78"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-2.64"/>
@@ -7704,7 +7801,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="79"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-1.98"/>
@@ -7720,7 +7817,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="80"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-3.74"/>
@@ -7736,7 +7833,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="81"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-11.31"/>
@@ -7752,7 +7849,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="82"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-1.98"/>
@@ -7768,7 +7865,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="83"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-0.57999999999999996"/>
@@ -7784,7 +7881,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="84"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-23.92"/>
@@ -7800,7 +7897,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="85"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-1.1599999999999999"/>
@@ -7816,7 +7913,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="86"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-3.96"/>
@@ -7832,7 +7929,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="87"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-2.88"/>
@@ -7848,7 +7945,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="88"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-5.82"/>
@@ -7864,7 +7961,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="89"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-1.98"/>
@@ -7880,7 +7977,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="90"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-68"/>
@@ -7896,7 +7993,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="91"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-4.1399999999999997"/>
@@ -7912,7 +8009,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="92"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-3.45"/>
@@ -7928,7 +8025,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="93"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-5.2"/>
@@ -7944,7 +8041,7 @@
     <m/>
   </r>
   <r>
-    <n v="22"/>
+    <x v="20"/>
     <n v="94"/>
     <d v="2017-10-28T01:22:00"/>
     <n v="-0.53"/>
@@ -7960,7 +8057,7 @@
     <m/>
   </r>
   <r>
-    <n v="23"/>
+    <x v="21"/>
     <n v="1"/>
     <d v="2017-10-28T01:28:26"/>
     <n v="4.26"/>
@@ -7976,7 +8073,7 @@
     <m/>
   </r>
   <r>
-    <n v="23"/>
+    <x v="21"/>
     <n v="2"/>
     <d v="2017-10-28T01:28:26"/>
     <n v="-4.26"/>
@@ -7992,7 +8089,7 @@
     <m/>
   </r>
   <r>
-    <n v="24"/>
+    <x v="22"/>
     <n v="1"/>
     <d v="2017-10-28T01:29:34"/>
     <n v="2.2999999999999998"/>
@@ -8008,7 +8105,7 @@
     <m/>
   </r>
   <r>
-    <n v="24"/>
+    <x v="22"/>
     <n v="2"/>
     <d v="2017-10-28T01:29:34"/>
     <n v="-2.2999999999999998"/>
@@ -8024,7 +8121,7 @@
     <m/>
   </r>
   <r>
-    <n v="25"/>
+    <x v="23"/>
     <n v="1"/>
     <d v="2017-10-28T01:29:48"/>
     <n v="2.2999999999999998"/>
@@ -8040,7 +8137,7 @@
     <m/>
   </r>
   <r>
-    <n v="25"/>
+    <x v="23"/>
     <n v="2"/>
     <d v="2017-10-28T01:29:48"/>
     <n v="-2.2999999999999998"/>
@@ -8056,7 +8153,7 @@
     <m/>
   </r>
   <r>
-    <n v="26"/>
+    <x v="24"/>
     <n v="1"/>
     <d v="2017-10-28T01:30:06"/>
     <n v="2.2999999999999998"/>
@@ -8072,7 +8169,7 @@
     <m/>
   </r>
   <r>
-    <n v="26"/>
+    <x v="24"/>
     <n v="2"/>
     <d v="2017-10-28T01:30:06"/>
     <n v="-2.2999999999999998"/>
@@ -8088,7 +8185,7 @@
     <m/>
   </r>
   <r>
-    <n v="27"/>
+    <x v="25"/>
     <n v="1"/>
     <d v="2017-10-28T01:31:13"/>
     <n v="34.36"/>
@@ -8104,7 +8201,7 @@
     <m/>
   </r>
   <r>
-    <n v="27"/>
+    <x v="25"/>
     <n v="2"/>
     <d v="2017-10-28T01:31:13"/>
     <n v="-34.36"/>
@@ -8120,7 +8217,7 @@
     <m/>
   </r>
   <r>
-    <n v="28"/>
+    <x v="26"/>
     <n v="1"/>
     <d v="2017-10-28T01:32:44"/>
     <n v="95.32"/>
@@ -8136,7 +8233,7 @@
     <m/>
   </r>
   <r>
-    <n v="28"/>
+    <x v="26"/>
     <n v="2"/>
     <d v="2017-10-28T01:32:44"/>
     <n v="-95.32"/>
@@ -8152,7 +8249,7 @@
     <m/>
   </r>
   <r>
-    <n v="29"/>
+    <x v="27"/>
     <n v="1"/>
     <d v="2017-10-28T01:36:08"/>
     <n v="206.88"/>
@@ -8168,7 +8265,7 @@
     <s v="sf"/>
   </r>
   <r>
-    <n v="29"/>
+    <x v="27"/>
     <n v="2"/>
     <d v="2017-10-28T01:36:08"/>
     <n v="-206.88"/>
@@ -8184,7 +8281,7 @@
     <s v="sf"/>
   </r>
   <r>
-    <n v="30"/>
+    <x v="28"/>
     <n v="1"/>
     <d v="2017-10-28T02:10:00"/>
     <n v="49.42"/>
@@ -8200,7 +8297,7 @@
     <m/>
   </r>
   <r>
-    <n v="30"/>
+    <x v="28"/>
     <n v="2"/>
     <d v="2017-10-28T02:10:00"/>
     <n v="-49.42"/>
@@ -8216,7 +8313,7 @@
     <m/>
   </r>
   <r>
-    <n v="31"/>
+    <x v="29"/>
     <n v="1"/>
     <d v="2017-10-28T02:11:03"/>
     <n v="4.2699999999999996"/>
@@ -8232,7 +8329,7 @@
     <m/>
   </r>
   <r>
-    <n v="31"/>
+    <x v="29"/>
     <n v="2"/>
     <d v="2017-10-28T02:11:03"/>
     <n v="-4.2699999999999996"/>
@@ -8248,7 +8345,7 @@
     <m/>
   </r>
   <r>
-    <n v="32"/>
+    <x v="30"/>
     <n v="1"/>
     <d v="2017-10-28T02:11:50"/>
     <n v="66"/>
@@ -8264,7 +8361,7 @@
     <m/>
   </r>
   <r>
-    <n v="32"/>
+    <x v="30"/>
     <n v="2"/>
     <d v="2017-10-28T02:11:50"/>
     <n v="-66"/>
@@ -8280,7 +8377,7 @@
     <m/>
   </r>
   <r>
-    <n v="33"/>
+    <x v="31"/>
     <n v="1"/>
     <d v="2017-10-28T02:12:52"/>
     <n v="5.01"/>
@@ -8296,7 +8393,7 @@
     <m/>
   </r>
   <r>
-    <n v="33"/>
+    <x v="31"/>
     <n v="2"/>
     <d v="2017-10-28T02:12:52"/>
     <n v="-5.01"/>
@@ -8312,7 +8409,7 @@
     <m/>
   </r>
   <r>
-    <n v="34"/>
+    <x v="32"/>
     <n v="1"/>
     <d v="2017-10-28T02:13:51"/>
     <n v="17.47"/>
@@ -8328,7 +8425,7 @@
     <m/>
   </r>
   <r>
-    <n v="34"/>
+    <x v="32"/>
     <n v="2"/>
     <d v="2017-10-28T02:13:51"/>
     <n v="-17.47"/>
@@ -8344,7 +8441,7 @@
     <m/>
   </r>
   <r>
-    <n v="35"/>
+    <x v="33"/>
     <n v="1"/>
     <d v="2017-10-28T02:14:19"/>
     <n v="18.14"/>
@@ -8360,7 +8457,7 @@
     <m/>
   </r>
   <r>
-    <n v="35"/>
+    <x v="33"/>
     <n v="2"/>
     <d v="2017-10-28T02:14:19"/>
     <n v="-18.14"/>
@@ -8376,7 +8473,7 @@
     <m/>
   </r>
   <r>
-    <n v="36"/>
+    <x v="34"/>
     <n v="1"/>
     <d v="2017-10-28T02:15:14"/>
     <n v="6.5"/>
@@ -8392,7 +8489,7 @@
     <m/>
   </r>
   <r>
-    <n v="36"/>
+    <x v="34"/>
     <n v="2"/>
     <d v="2017-10-28T02:15:14"/>
     <n v="-6.5"/>
@@ -8408,7 +8505,7 @@
     <m/>
   </r>
   <r>
-    <n v="37"/>
+    <x v="35"/>
     <n v="1"/>
     <d v="2017-10-28T02:17:07"/>
     <n v="60"/>
@@ -8424,7 +8521,7 @@
     <m/>
   </r>
   <r>
-    <n v="37"/>
+    <x v="35"/>
     <n v="2"/>
     <d v="2017-10-28T02:17:07"/>
     <n v="-60"/>
@@ -8440,7 +8537,7 @@
     <m/>
   </r>
   <r>
-    <n v="38"/>
+    <x v="36"/>
     <n v="1"/>
     <d v="2017-10-28T02:17:54"/>
     <n v="38.450000000000003"/>
@@ -8456,7 +8553,7 @@
     <m/>
   </r>
   <r>
-    <n v="38"/>
+    <x v="36"/>
     <n v="2"/>
     <d v="2017-10-28T02:17:54"/>
     <n v="-38.450000000000003"/>
@@ -8471,14 +8568,250 @@
     <m/>
     <m/>
   </r>
+  <r>
+    <x v="37"/>
+    <n v="1"/>
+    <d v="2017-10-30T22:03:06"/>
+    <n v="6.4"/>
+    <x v="5"/>
+    <x v="21"/>
+    <x v="146"/>
+    <n v="6.4"/>
+    <x v="2"/>
+    <x v="110"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <n v="2"/>
+    <d v="2017-10-30T22:03:06"/>
+    <n v="-6.4"/>
+    <x v="5"/>
+    <x v="21"/>
+    <x v="146"/>
+    <n v="-6.4"/>
+    <x v="1"/>
+    <x v="110"/>
+    <x v="18"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="1"/>
+    <d v="2017-10-30T22:06:03"/>
+    <n v="7.99"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="147"/>
+    <n v="7.99"/>
+    <x v="2"/>
+    <x v="111"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="2"/>
+    <d v="2017-10-30T22:06:03"/>
+    <n v="7.99"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="147"/>
+    <n v="7.99"/>
+    <x v="2"/>
+    <x v="112"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="3"/>
+    <d v="2017-10-30T22:06:03"/>
+    <n v="28.74"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="46"/>
+    <n v="28.74"/>
+    <x v="3"/>
+    <x v="113"/>
+    <x v="19"/>
+    <m/>
+    <s v="6"/>
+    <s v="ea"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="4"/>
+    <d v="2017-10-30T22:06:03"/>
+    <n v="3.02"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="3.02"/>
+    <x v="4"/>
+    <x v="11"/>
+    <x v="3"/>
+    <s v="0.0675"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="5"/>
+    <d v="2017-10-30T22:06:03"/>
+    <n v="-7.99"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="147"/>
+    <n v="-7.99"/>
+    <x v="1"/>
+    <x v="111"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="6"/>
+    <d v="2017-10-30T22:06:03"/>
+    <n v="-7.99"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="147"/>
+    <n v="-7.99"/>
+    <x v="1"/>
+    <x v="112"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="7"/>
+    <d v="2017-10-30T22:06:03"/>
+    <n v="-28.74"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="46"/>
+    <n v="-28.74"/>
+    <x v="1"/>
+    <x v="113"/>
+    <x v="19"/>
+    <m/>
+    <s v="6"/>
+    <s v="ea"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <n v="8"/>
+    <d v="2017-10-30T22:06:03"/>
+    <n v="-3.02"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="16"/>
+    <n v="-3.02"/>
+    <x v="1"/>
+    <x v="11"/>
+    <x v="3"/>
+    <s v="0.0675"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="1"/>
+    <d v="2017-10-30T22:10:16"/>
+    <n v="19.600000000000001"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="148"/>
+    <n v="19.600000000000001"/>
+    <x v="2"/>
+    <x v="114"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <n v="2"/>
+    <d v="2017-10-30T22:10:16"/>
+    <n v="-19.600000000000001"/>
+    <x v="14"/>
+    <x v="3"/>
+    <x v="148"/>
+    <n v="-19.600000000000001"/>
+    <x v="1"/>
+    <x v="114"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:L27" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="55" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" mergeItem="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:L28" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
   <pivotFields count="14">
-    <pivotField subtotalTop="0" showAll="0"/>
+    <pivotField axis="axisRow" subtotalTop="0" showAll="0">
+      <items count="41">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="5"/>
+        <item sd="0" x="6"/>
+        <item sd="0" x="7"/>
+        <item sd="0" x="8"/>
+        <item sd="0" x="9"/>
+        <item sd="0" x="10"/>
+        <item sd="0" x="11"/>
+        <item sd="0" x="12"/>
+        <item sd="0" x="13"/>
+        <item sd="0" x="14"/>
+        <item sd="0" x="15"/>
+        <item sd="0" x="16"/>
+        <item sd="0" x="17"/>
+        <item sd="0" x="18"/>
+        <item sd="0" x="19"/>
+        <item sd="0" x="20"/>
+        <item sd="0" x="21"/>
+        <item sd="0" x="22"/>
+        <item sd="0" x="23"/>
+        <item sd="0" x="24"/>
+        <item sd="0" x="25"/>
+        <item sd="0" x="26"/>
+        <item sd="0" x="27"/>
+        <item sd="0" x="28"/>
+        <item sd="0" x="29"/>
+        <item sd="0" x="30"/>
+        <item sd="0" x="31"/>
+        <item sd="0" x="32"/>
+        <item sd="0" x="33"/>
+        <item sd="0" x="34"/>
+        <item sd="0" x="35"/>
+        <item sd="0" x="36"/>
+        <item sd="0" x="37"/>
+        <item sd="0" x="38"/>
+        <item sd="0" x="39"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField numFmtId="22" subtotalTop="0" showAll="0"/>
     <pivotField dataField="1" subtotalTop="0" showAll="0"/>
@@ -8503,13 +8836,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0" sortType="ascending" defaultSubtotal="0">
-      <items count="21">
+      <items count="22">
         <item sd="0" x="0"/>
         <item sd="0" x="18"/>
         <item sd="0" x="16"/>
         <item sd="0" x="4"/>
         <item sd="0" x="14"/>
         <item sd="0" x="10"/>
+        <item sd="0" x="21"/>
         <item sd="0" x="6"/>
         <item sd="0" x="3"/>
         <item sd="0" x="17"/>
@@ -8528,7 +8862,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="148">
+      <items count="151">
         <item sd="0" x="5"/>
         <item sd="0" x="52"/>
         <item sd="0" x="46"/>
@@ -8548,7 +8882,7 @@
         <item sd="0" x="11"/>
         <item sd="0" x="22"/>
         <item sd="0" x="56"/>
-        <item sd="0" m="1" x="146"/>
+        <item sd="0" m="1" x="149"/>
         <item sd="0" x="1"/>
         <item sd="0" x="28"/>
         <item sd="0" x="35"/>
@@ -8676,29 +9010,33 @@
         <item sd="0" x="143"/>
         <item sd="0" x="144"/>
         <item sd="0" x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
         <item t="default" sd="0"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="13">
+      <items count="14">
         <item sd="0" x="1"/>
         <item sd="0" x="6"/>
         <item sd="0" x="8"/>
         <item sd="0" x="0"/>
         <item sd="0" x="5"/>
-        <item m="1" x="10"/>
+        <item m="1" x="11"/>
         <item sd="0" x="2"/>
         <item sd="0" x="9"/>
         <item sd="0" x="3"/>
-        <item sd="0" m="1" x="12"/>
+        <item sd="0" m="1" x="13"/>
         <item sd="0" x="7"/>
         <item sd="0" x="4"/>
-        <item sd="0" m="1" x="11"/>
+        <item sd="0" m="1" x="12"/>
+        <item m="1" x="10"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="117">
+      <items count="123">
         <item sd="0" x="65"/>
         <item sd="0" x="86"/>
         <item sd="0" x="98"/>
@@ -8737,7 +9075,7 @@
         <item sd="0" x="21"/>
         <item sd="0" x="84"/>
         <item sd="0" x="72"/>
-        <item sd="0" m="1" x="111"/>
+        <item sd="0" m="1" x="117"/>
         <item sd="0" x="7"/>
         <item sd="0" x="13"/>
         <item sd="0" x="9"/>
@@ -8749,9 +9087,9 @@
         <item sd="0" x="38"/>
         <item sd="0" x="101"/>
         <item sd="0" x="109"/>
-        <item sd="0" m="1" x="112"/>
+        <item sd="0" m="1" x="118"/>
         <item sd="0" x="23"/>
-        <item sd="0" m="1" x="114"/>
+        <item sd="0" m="1" x="120"/>
         <item sd="0" x="36"/>
         <item sd="0" x="99"/>
         <item sd="0" x="17"/>
@@ -8762,13 +9100,13 @@
         <item sd="0" x="10"/>
         <item sd="0" x="4"/>
         <item sd="0" x="15"/>
-        <item sd="0" m="1" x="113"/>
+        <item sd="0" m="1" x="119"/>
         <item sd="0" x="3"/>
         <item sd="0" x="19"/>
         <item sd="0" x="105"/>
         <item sd="0" x="39"/>
         <item sd="0" x="67"/>
-        <item sd="0" m="1" x="110"/>
+        <item sd="0" m="1" x="116"/>
         <item sd="0" x="90"/>
         <item sd="0" x="20"/>
         <item sd="0" x="46"/>
@@ -8777,7 +9115,7 @@
         <item sd="0" x="108"/>
         <item sd="0" x="104"/>
         <item sd="0" x="85"/>
-        <item sd="0" m="1" x="115"/>
+        <item sd="0" m="1" x="121"/>
         <item sd="0" x="60"/>
         <item sd="0" x="0"/>
         <item sd="0" x="31"/>
@@ -8815,6 +9153,12 @@
         <item x="12"/>
         <item x="25"/>
         <item x="26"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item m="1" x="115"/>
+        <item x="114"/>
         <item t="default" sd="0"/>
       </items>
       <autoSortScope>
@@ -8831,11 +9175,11 @@
       </autoSortScope>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="20">
+      <items count="22">
         <item x="5"/>
         <item x="13"/>
         <item x="0"/>
-        <item m="1" x="18"/>
+        <item m="1" x="20"/>
         <item x="1"/>
         <item x="16"/>
         <item x="12"/>
@@ -8851,6 +9195,8 @@
         <item x="14"/>
         <item x="7"/>
         <item x="4"/>
+        <item x="18"/>
+        <item x="19"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -8858,13 +9204,14 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="4">
+  <rowFields count="5">
     <field x="5"/>
+    <field x="0"/>
+    <field x="4"/>
     <field x="9"/>
-    <field x="4"/>
     <field x="6"/>
   </rowFields>
-  <rowItems count="22">
+  <rowItems count="23">
     <i>
       <x/>
     </i>
@@ -8928,6 +9275,9 @@
     <i>
       <x v="20"/>
     </i>
+    <i>
+      <x v="21"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -8990,46 +9340,72 @@
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Query from pg10_32" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh preserveSortFilterLayout="0" nextId="15">
     <queryTableFields count="14">
-      <queryTableField id="1" name="id" tableColumnId="127"/>
-      <queryTableField id="2" name="rn" tableColumnId="128"/>
-      <queryTableField id="3" name="post_stmp" tableColumnId="129"/>
-      <queryTableField id="4" name="amount" tableColumnId="130"/>
-      <queryTableField id="5" name="tran_date" tableColumnId="131"/>
-      <queryTableField id="6" name="vendor" tableColumnId="132"/>
-      <queryTableField id="7" name="vend_item" tableColumnId="133"/>
-      <queryTableField id="8" name="amt" tableColumnId="134"/>
-      <queryTableField id="9" name="account" tableColumnId="135"/>
-      <queryTableField id="10" name="item" tableColumnId="136"/>
-      <queryTableField id="11" name="reason" tableColumnId="137"/>
-      <queryTableField id="12" name="rate" tableColumnId="138"/>
-      <queryTableField id="13" name="qty" tableColumnId="139"/>
-      <queryTableField id="14" name="uom" tableColumnId="140"/>
+      <queryTableField id="1" name="id" tableColumnId="43"/>
+      <queryTableField id="2" name="rn" tableColumnId="44"/>
+      <queryTableField id="3" name="post_stmp" tableColumnId="45"/>
+      <queryTableField id="4" name="amount" tableColumnId="46"/>
+      <queryTableField id="5" name="tran_date" tableColumnId="47"/>
+      <queryTableField id="6" name="vendor" tableColumnId="48"/>
+      <queryTableField id="7" name="vend_item" tableColumnId="49"/>
+      <queryTableField id="8" name="amt" tableColumnId="50"/>
+      <queryTableField id="9" name="account" tableColumnId="51"/>
+      <queryTableField id="10" name="item" tableColumnId="52"/>
+      <queryTableField id="11" name="reason" tableColumnId="53"/>
+      <queryTableField id="12" name="rate" tableColumnId="54"/>
+      <queryTableField id="13" name="qty" tableColumnId="55"/>
+      <queryTableField id="14" name="uom" tableColumnId="56"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Query_from_pg10_32" displayName="Table_Query_from_pg10_32" ref="A1:N407" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:N407"/>
-  <sortState ref="A2:N407">
-    <sortCondition ref="A1:A407"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:N9" totalsRowShown="0">
+  <autoFilter ref="A1:N9"/>
+  <sortState ref="A2:N9">
+    <sortCondition ref="B1:B9"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="127" uniqueName="127" name="id" queryTableFieldId="1"/>
-    <tableColumn id="128" uniqueName="128" name="rn" queryTableFieldId="2"/>
-    <tableColumn id="129" uniqueName="129" name="post_stmp" queryTableFieldId="3" dataDxfId="1"/>
-    <tableColumn id="130" uniqueName="130" name="amount" queryTableFieldId="4"/>
-    <tableColumn id="131" uniqueName="131" name="tran_date" queryTableFieldId="5" dataDxfId="0"/>
-    <tableColumn id="132" uniqueName="132" name="vendor" queryTableFieldId="6"/>
-    <tableColumn id="133" uniqueName="133" name="vend_item" queryTableFieldId="7"/>
-    <tableColumn id="134" uniqueName="134" name="amt" queryTableFieldId="8"/>
-    <tableColumn id="135" uniqueName="135" name="account" queryTableFieldId="9"/>
-    <tableColumn id="136" uniqueName="136" name="item" queryTableFieldId="10"/>
-    <tableColumn id="137" uniqueName="137" name="reason" queryTableFieldId="11"/>
-    <tableColumn id="138" uniqueName="138" name="rate" queryTableFieldId="12"/>
-    <tableColumn id="139" uniqueName="139" name="qty" queryTableFieldId="13"/>
-    <tableColumn id="140" uniqueName="140" name="uom" queryTableFieldId="14"/>
+    <tableColumn id="1" name="id"/>
+    <tableColumn id="2" name="rn"/>
+    <tableColumn id="3" name="post_stmp" dataDxfId="3"/>
+    <tableColumn id="4" name="amount"/>
+    <tableColumn id="5" name="tran_date" dataDxfId="2"/>
+    <tableColumn id="6" name="vendor"/>
+    <tableColumn id="7" name="vend_item"/>
+    <tableColumn id="8" name="amt"/>
+    <tableColumn id="9" name="account"/>
+    <tableColumn id="10" name="item"/>
+    <tableColumn id="11" name="reason"/>
+    <tableColumn id="12" name="rate"/>
+    <tableColumn id="13" name="qty"/>
+    <tableColumn id="14" name="uom"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table_Query_from_pg10_32" displayName="Table_Query_from_pg10_32" ref="A1:N419" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:N419"/>
+  <sortState ref="A2:N419">
+    <sortCondition ref="A1:A419"/>
+  </sortState>
+  <tableColumns count="14">
+    <tableColumn id="43" uniqueName="43" name="id" queryTableFieldId="1"/>
+    <tableColumn id="44" uniqueName="44" name="rn" queryTableFieldId="2"/>
+    <tableColumn id="45" uniqueName="45" name="post_stmp" queryTableFieldId="3" dataDxfId="1"/>
+    <tableColumn id="46" uniqueName="46" name="amount" queryTableFieldId="4"/>
+    <tableColumn id="47" uniqueName="47" name="tran_date" queryTableFieldId="5" dataDxfId="0"/>
+    <tableColumn id="48" uniqueName="48" name="vendor" queryTableFieldId="6"/>
+    <tableColumn id="49" uniqueName="49" name="vend_item" queryTableFieldId="7"/>
+    <tableColumn id="50" uniqueName="50" name="amt" queryTableFieldId="8"/>
+    <tableColumn id="51" uniqueName="51" name="account" queryTableFieldId="9"/>
+    <tableColumn id="52" uniqueName="52" name="item" queryTableFieldId="10"/>
+    <tableColumn id="53" uniqueName="53" name="reason" queryTableFieldId="11"/>
+    <tableColumn id="54" uniqueName="54" name="rate" queryTableFieldId="12"/>
+    <tableColumn id="55" uniqueName="55" name="qty" queryTableFieldId="13"/>
+    <tableColumn id="56" uniqueName="56" name="uom" queryTableFieldId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9332,11 +9708,372 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D2">
+        <v>7.99</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>361</v>
+      </c>
+      <c r="H2">
+        <v>7.99</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D3">
+        <v>7.99</v>
+      </c>
+      <c r="E3" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" t="s">
+        <v>361</v>
+      </c>
+      <c r="H3">
+        <v>7.99</v>
+      </c>
+      <c r="I3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>363</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>42</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D4">
+        <v>28.74</v>
+      </c>
+      <c r="E4" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4">
+        <v>28.74</v>
+      </c>
+      <c r="I4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" t="s">
+        <v>364</v>
+      </c>
+      <c r="K4" t="s">
+        <v>365</v>
+      </c>
+      <c r="M4" t="s">
+        <v>366</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D5">
+        <v>3.02</v>
+      </c>
+      <c r="E5" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>3.02</v>
+      </c>
+      <c r="L5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D6">
+        <v>-7.99</v>
+      </c>
+      <c r="E6" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>361</v>
+      </c>
+      <c r="H6">
+        <v>-7.99</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="s">
+        <v>362</v>
+      </c>
+      <c r="K6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D7">
+        <v>-7.99</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>361</v>
+      </c>
+      <c r="H7">
+        <v>-7.99</v>
+      </c>
+      <c r="I7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D8">
+        <v>-28.74</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8">
+        <v>-28.74</v>
+      </c>
+      <c r="I8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" t="s">
+        <v>364</v>
+      </c>
+      <c r="K8" t="s">
+        <v>365</v>
+      </c>
+      <c r="M8" t="s">
+        <v>366</v>
+      </c>
+      <c r="N8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D9">
+        <v>-3.02</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F9" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9">
+        <v>-3.02</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="L9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A3:L27"/>
+  <dimension ref="A3:L28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9443,37 +10180,37 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -9481,17 +10218,17 @@
       <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -9629,168 +10366,168 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>358</v>
       </c>
       <c r="B12" s="3">
-        <v>-21.35</v>
+        <v>-6.4</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3">
-        <v>20</v>
-      </c>
-      <c r="G12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3">
+        <v>6.4</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
-      <c r="K12" s="3">
-        <v>1.35</v>
-      </c>
+      <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>-1.3322676295501878E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
-        <v>-48.38000000000001</v>
+        <v>-21.35</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3">
-        <v>24.63</v>
-      </c>
+      <c r="E13" s="3"/>
       <c r="F13" s="3">
-        <v>7.99</v>
-      </c>
-      <c r="G13" s="3">
-        <v>14.260000000000002</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="L13" s="3">
-        <v>-8.8817841970012523E-15</v>
+        <v>-1.3322676295501878E-15</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>345</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3">
-        <v>-11.51</v>
+        <v>-67.980000000000018</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+        <v>24.63</v>
+      </c>
+      <c r="F14" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="G14" s="3">
+        <v>33.86</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3">
-        <v>5.01</v>
-      </c>
-      <c r="K14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3">
+        <v>1.5</v>
+      </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>-2.1316282072803006E-14</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>13</v>
+        <v>345</v>
       </c>
       <c r="B15" s="3">
-        <v>-44.720000000000006</v>
+        <v>-11.51</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3">
-        <v>39.39</v>
-      </c>
-      <c r="F15" s="3">
-        <v>4.99</v>
-      </c>
+        <v>6.5</v>
+      </c>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>0.34</v>
-      </c>
+      <c r="J15" s="3">
+        <v>5.01</v>
+      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="3">
-        <v>-5.1625370645069779E-15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3">
-        <v>-25.09</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B16" s="3">
+        <v>-44.720000000000006</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3">
-        <v>23.39</v>
-      </c>
+      <c r="E16" s="3">
+        <v>39.39</v>
+      </c>
+      <c r="F16" s="3">
+        <v>4.99</v>
+      </c>
+      <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
-        <v>1.7</v>
+        <v>0.34</v>
       </c>
       <c r="L16" s="3">
-        <v>6.6613381477509392E-16</v>
+        <v>-5.1625370645069779E-15</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B17" s="3">
-        <v>-4.26</v>
-      </c>
-      <c r="C17" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3">
+        <v>-25.09</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3">
-        <v>4.26</v>
+        <v>23.39</v>
       </c>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="K17" s="3">
+        <v>1.7</v>
+      </c>
       <c r="L17" s="3">
-        <v>0</v>
+        <v>6.6613381477509392E-16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="B18" s="3">
-        <v>-4.2699999999999996</v>
+        <v>-4.26</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="3">
+        <v>4.26</v>
+      </c>
       <c r="H18" s="3"/>
-      <c r="I18" s="3">
-        <v>4.2699999999999996</v>
-      </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
       <c r="L18" s="3">
@@ -9799,20 +10536,20 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="B19" s="3">
-        <v>-60</v>
+        <v>-4.2699999999999996</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="3">
-        <v>60</v>
-      </c>
+      <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+      <c r="I19" s="3">
+        <v>4.2699999999999996</v>
+      </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3">
@@ -9821,16 +10558,16 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="B20" s="3">
-        <v>-95.32</v>
+        <v>-60</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3">
-        <v>95.32</v>
+        <v>60</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
@@ -9843,17 +10580,17 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>334</v>
       </c>
       <c r="B21" s="3">
-        <v>-3.49</v>
+        <v>-95.32</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3">
-        <v>3.49</v>
-      </c>
-      <c r="F21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>95.32</v>
+      </c>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -9865,16 +10602,16 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>330</v>
+        <v>16</v>
       </c>
       <c r="B22" s="3">
-        <v>-34.36</v>
+        <v>-3.49</v>
       </c>
       <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>34.36</v>
-      </c>
-      <c r="E22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3">
+        <v>3.49</v>
+      </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
@@ -9887,14 +10624,14 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="B23" s="3">
-        <v>-38.450000000000003</v>
+        <v>-34.36</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3">
-        <v>38.450000000000003</v>
+        <v>34.36</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -9909,70 +10646,70 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>7</v>
+        <v>352</v>
       </c>
       <c r="B24" s="3">
-        <v>-389.85000000000008</v>
+        <v>-38.450000000000003</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
-        <v>18.54</v>
-      </c>
-      <c r="F24" s="3">
-        <v>28.979999999999997</v>
-      </c>
-      <c r="G24" s="3">
-        <v>208.49000000000004</v>
-      </c>
+      <c r="D24" s="3">
+        <v>38.450000000000003</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3">
-        <v>110.14999999999999</v>
-      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="3"/>
-      <c r="K24" s="3">
-        <v>23.69</v>
-      </c>
+      <c r="K24" s="3"/>
       <c r="L24" s="3">
-        <v>-1.0658141036401503E-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>337</v>
+        <v>7</v>
       </c>
       <c r="B25" s="3">
-        <v>-206.88</v>
+        <v>-437.59000000000009</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="E25" s="3">
+        <v>18.54</v>
+      </c>
+      <c r="F25" s="3">
+        <v>28.979999999999997</v>
+      </c>
       <c r="G25" s="3">
-        <v>206.88</v>
+        <v>224.47000000000006</v>
       </c>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="3">
+        <v>138.88999999999999</v>
+      </c>
       <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="K25" s="3">
+        <v>26.71</v>
+      </c>
       <c r="L25" s="3">
-        <v>0</v>
+        <v>-7.1054273576010019E-15</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>116</v>
+        <v>337</v>
       </c>
       <c r="B26" s="3">
-        <v>-521.50000000000034</v>
+        <v>-206.88</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3">
-        <v>521.50000000000034</v>
-      </c>
+      <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3">
+        <v>206.88</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -9983,67 +10720,89 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="3">
+        <v>-521.50000000000034</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3">
+        <v>521.50000000000034</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="3">
-        <v>-1754.3000000000006</v>
-      </c>
-      <c r="C27" s="3">
+      <c r="B28" s="3">
+        <v>-1828.0400000000004</v>
+      </c>
+      <c r="C28" s="3">
         <v>-25.09</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D28" s="3">
         <v>122.23</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E28" s="3">
         <v>682.58000000000038</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F28" s="3">
         <v>217.28</v>
       </c>
-      <c r="G27" s="3">
-        <v>498.03000000000003</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G28" s="3">
+        <v>540.01</v>
+      </c>
+      <c r="H28" s="3">
         <v>66</v>
       </c>
-      <c r="I27" s="3">
-        <v>114.41999999999999</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="I28" s="3">
+        <v>143.16</v>
+      </c>
+      <c r="J28" s="3">
         <v>47.519999999999996</v>
       </c>
-      <c r="K27" s="3">
-        <v>31.330000000000002</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2.5368596112684827E-14</v>
+      <c r="K28" s="3">
+        <v>34.35</v>
+      </c>
+      <c r="L28" s="3">
+        <v>-3.4250380309686079E-14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:N407"/>
+  <dimension ref="A1:N419"/>
   <sheetViews>
-    <sheetView topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="F349" sqref="F349"/>
+    <sheetView topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="C403" sqref="C403"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24733,7 +25492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>35</v>
       </c>
@@ -24768,7 +25527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>36</v>
       </c>
@@ -24803,7 +25562,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>36</v>
       </c>
@@ -24838,7 +25597,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>37</v>
       </c>
@@ -24873,7 +25632,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>37</v>
       </c>
@@ -24908,7 +25667,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>38</v>
       </c>
@@ -24943,7 +25702,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>38</v>
       </c>
@@ -24976,6 +25735,444 @@
       </c>
       <c r="K407" t="s">
         <v>333</v>
+      </c>
+    </row>
+    <row r="408" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>41</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408" s="1">
+        <v>43038.918819444443</v>
+      </c>
+      <c r="D408">
+        <v>6.4</v>
+      </c>
+      <c r="E408" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F408" t="s">
+        <v>358</v>
+      </c>
+      <c r="G408" t="s">
+        <v>359</v>
+      </c>
+      <c r="H408">
+        <v>6.4</v>
+      </c>
+      <c r="I408" t="s">
+        <v>9</v>
+      </c>
+      <c r="J408" t="s">
+        <v>359</v>
+      </c>
+      <c r="K408" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="409" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>41</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409" s="1">
+        <v>43038.918819444443</v>
+      </c>
+      <c r="D409">
+        <v>-6.4</v>
+      </c>
+      <c r="E409" s="4">
+        <v>43017</v>
+      </c>
+      <c r="F409" t="s">
+        <v>358</v>
+      </c>
+      <c r="G409" t="s">
+        <v>359</v>
+      </c>
+      <c r="H409">
+        <v>-6.4</v>
+      </c>
+      <c r="I409" t="s">
+        <v>10</v>
+      </c>
+      <c r="J409" t="s">
+        <v>359</v>
+      </c>
+      <c r="K409" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="410" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>42</v>
+      </c>
+      <c r="B410">
+        <v>1</v>
+      </c>
+      <c r="C410" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D410">
+        <v>7.99</v>
+      </c>
+      <c r="E410" s="4">
+        <v>43020</v>
+      </c>
+      <c r="F410" t="s">
+        <v>7</v>
+      </c>
+      <c r="G410" t="s">
+        <v>361</v>
+      </c>
+      <c r="H410">
+        <v>7.99</v>
+      </c>
+      <c r="I410" t="s">
+        <v>9</v>
+      </c>
+      <c r="J410" t="s">
+        <v>362</v>
+      </c>
+      <c r="K410" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="411" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>42</v>
+      </c>
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D411">
+        <v>7.99</v>
+      </c>
+      <c r="E411" s="4">
+        <v>43020</v>
+      </c>
+      <c r="F411" t="s">
+        <v>7</v>
+      </c>
+      <c r="G411" t="s">
+        <v>361</v>
+      </c>
+      <c r="H411">
+        <v>7.99</v>
+      </c>
+      <c r="I411" t="s">
+        <v>9</v>
+      </c>
+      <c r="J411" t="s">
+        <v>363</v>
+      </c>
+      <c r="K411" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="412" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>42</v>
+      </c>
+      <c r="B412">
+        <v>3</v>
+      </c>
+      <c r="C412" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D412">
+        <v>28.74</v>
+      </c>
+      <c r="E412" s="4">
+        <v>43020</v>
+      </c>
+      <c r="F412" t="s">
+        <v>7</v>
+      </c>
+      <c r="G412" t="s">
+        <v>87</v>
+      </c>
+      <c r="H412">
+        <v>28.74</v>
+      </c>
+      <c r="I412" t="s">
+        <v>6</v>
+      </c>
+      <c r="J412" t="s">
+        <v>364</v>
+      </c>
+      <c r="K412" t="s">
+        <v>365</v>
+      </c>
+      <c r="M412" t="s">
+        <v>366</v>
+      </c>
+      <c r="N412" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="413" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>42</v>
+      </c>
+      <c r="B413">
+        <v>4</v>
+      </c>
+      <c r="C413" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D413">
+        <v>3.02</v>
+      </c>
+      <c r="E413" s="4">
+        <v>43020</v>
+      </c>
+      <c r="F413" t="s">
+        <v>7</v>
+      </c>
+      <c r="G413" t="s">
+        <v>38</v>
+      </c>
+      <c r="H413">
+        <v>3.02</v>
+      </c>
+      <c r="I413" t="s">
+        <v>8</v>
+      </c>
+      <c r="J413" t="s">
+        <v>8</v>
+      </c>
+      <c r="K413" t="s">
+        <v>8</v>
+      </c>
+      <c r="L413" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="414" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>42</v>
+      </c>
+      <c r="B414">
+        <v>5</v>
+      </c>
+      <c r="C414" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D414">
+        <v>-7.99</v>
+      </c>
+      <c r="E414" s="4">
+        <v>43020</v>
+      </c>
+      <c r="F414" t="s">
+        <v>7</v>
+      </c>
+      <c r="G414" t="s">
+        <v>361</v>
+      </c>
+      <c r="H414">
+        <v>-7.99</v>
+      </c>
+      <c r="I414" t="s">
+        <v>10</v>
+      </c>
+      <c r="J414" t="s">
+        <v>362</v>
+      </c>
+      <c r="K414" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="415" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>42</v>
+      </c>
+      <c r="B415">
+        <v>6</v>
+      </c>
+      <c r="C415" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D415">
+        <v>-7.99</v>
+      </c>
+      <c r="E415" s="4">
+        <v>43020</v>
+      </c>
+      <c r="F415" t="s">
+        <v>7</v>
+      </c>
+      <c r="G415" t="s">
+        <v>361</v>
+      </c>
+      <c r="H415">
+        <v>-7.99</v>
+      </c>
+      <c r="I415" t="s">
+        <v>10</v>
+      </c>
+      <c r="J415" t="s">
+        <v>363</v>
+      </c>
+      <c r="K415" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="416" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>42</v>
+      </c>
+      <c r="B416">
+        <v>7</v>
+      </c>
+      <c r="C416" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D416">
+        <v>-28.74</v>
+      </c>
+      <c r="E416" s="4">
+        <v>43020</v>
+      </c>
+      <c r="F416" t="s">
+        <v>7</v>
+      </c>
+      <c r="G416" t="s">
+        <v>87</v>
+      </c>
+      <c r="H416">
+        <v>-28.74</v>
+      </c>
+      <c r="I416" t="s">
+        <v>10</v>
+      </c>
+      <c r="J416" t="s">
+        <v>364</v>
+      </c>
+      <c r="K416" t="s">
+        <v>365</v>
+      </c>
+      <c r="M416" t="s">
+        <v>366</v>
+      </c>
+      <c r="N416" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>42</v>
+      </c>
+      <c r="B417">
+        <v>8</v>
+      </c>
+      <c r="C417" s="1">
+        <v>43038.920868055553</v>
+      </c>
+      <c r="D417">
+        <v>-3.02</v>
+      </c>
+      <c r="E417" s="4">
+        <v>43020</v>
+      </c>
+      <c r="F417" t="s">
+        <v>7</v>
+      </c>
+      <c r="G417" t="s">
+        <v>38</v>
+      </c>
+      <c r="H417">
+        <v>-3.02</v>
+      </c>
+      <c r="I417" t="s">
+        <v>10</v>
+      </c>
+      <c r="J417" t="s">
+        <v>8</v>
+      </c>
+      <c r="K417" t="s">
+        <v>8</v>
+      </c>
+      <c r="L417" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>43</v>
+      </c>
+      <c r="B418">
+        <v>1</v>
+      </c>
+      <c r="C418" s="1">
+        <v>43038.923796296294</v>
+      </c>
+      <c r="D418">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E418" s="4">
+        <v>43027</v>
+      </c>
+      <c r="F418" t="s">
+        <v>14</v>
+      </c>
+      <c r="G418" t="s">
+        <v>368</v>
+      </c>
+      <c r="H418">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="I418" t="s">
+        <v>9</v>
+      </c>
+      <c r="J418" t="s">
+        <v>369</v>
+      </c>
+      <c r="K418" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>43</v>
+      </c>
+      <c r="B419">
+        <v>2</v>
+      </c>
+      <c r="C419" s="1">
+        <v>43038.923796296294</v>
+      </c>
+      <c r="D419">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="E419" s="4">
+        <v>43027</v>
+      </c>
+      <c r="F419" t="s">
+        <v>14</v>
+      </c>
+      <c r="G419" t="s">
+        <v>368</v>
+      </c>
+      <c r="H419">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="I419" t="s">
+        <v>10</v>
+      </c>
+      <c r="J419" t="s">
+        <v>369</v>
+      </c>
+      <c r="K419" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
